--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_Budget_v2_updated.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_Budget_v2_updated.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget v2 UPDATED" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget v2 UPDATED" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +550,614 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41441</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31337</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23155</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9751</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46649</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26432</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15243</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26648</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31516</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34069</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30267</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>32741</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34023</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28056</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11629</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8362</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29876</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>41035</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15471</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42051</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8585</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23058</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10499</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15327</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9681</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42083</v>
+      </c>
+      <c r="D19" t="n">
+        <v>46947</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>46349</v>
+      </c>
+      <c r="C20" t="n">
+        <v>45875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37184</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9930</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>33181</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25097</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15693</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>24819</v>
+      </c>
+      <c r="C23" t="n">
+        <v>47845</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>46443</v>
+      </c>
+      <c r="C24" t="n">
+        <v>40899</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13119</v>
+      </c>
+      <c r="C25" t="n">
+        <v>46924</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23096</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4094</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20143</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13862</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16597</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31339</v>
+      </c>
+      <c r="D27" t="n">
+        <v>28684</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>33123</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31433</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25751</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14191</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26826</v>
+      </c>
+      <c r="D29" t="n">
+        <v>37058</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16864</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20596</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14186</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5934</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29187</v>
+      </c>
+      <c r="D31" t="n">
+        <v>49927</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6781</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4749</v>
+      </c>
+      <c r="D32" t="n">
+        <v>46968</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13846</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22746</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9370</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10675</v>
+      </c>
+      <c r="C34" t="n">
+        <v>49696</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31009</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18755</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>21095</v>
+      </c>
+      <c r="C36" t="n">
+        <v>46777</v>
+      </c>
+      <c r="D36" t="n">
+        <v>32461</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9851</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34046</v>
+      </c>
+      <c r="D37" t="n">
+        <v>29631</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>33719</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4419</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>33282</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19531</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4379</v>
+      </c>
+      <c r="C40" t="n">
+        <v>45491</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>22898</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19345</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11199</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13922</v>
+      </c>
+      <c r="C42" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D42" t="n">
+        <v>35963</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>30996</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43667</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10456</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>41098</v>
+      </c>
+      <c r="C44" t="n">
+        <v>23155</v>
+      </c>
+      <c r="D44" t="n">
+        <v>27739</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>47507</v>
+      </c>
+      <c r="C45" t="n">
+        <v>46434</v>
+      </c>
+      <c r="D45" t="n">
+        <v>45813</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
